--- a/Correct Cooler requirements - Oksana_Oliinyk.xlsx
+++ b/Correct Cooler requirements - Oksana_Oliinyk.xlsx
@@ -285,7 +285,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,15 +308,29 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -477,23 +491,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -502,7 +507,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -511,10 +516,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -799,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -816,28 +839,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2"/>
@@ -848,28 +871,28 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="17" t="s">
         <v>34</v>
       </c>
       <c r="I2" s="2"/>
@@ -880,7 +903,7 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -901,7 +924,7 @@
       <c r="G3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="6" t="s">
         <v>40</v>
       </c>
       <c r="I3" s="2"/>
@@ -912,7 +935,7 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -933,7 +956,7 @@
       <c r="G4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="6" t="s">
         <v>40</v>
       </c>
       <c r="I4" s="2"/>
@@ -944,7 +967,7 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -956,7 +979,7 @@
       <c r="D5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>48</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -965,7 +988,7 @@
       <c r="G5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="I5" s="2"/>
@@ -976,28 +999,28 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="2"/>
@@ -1008,13 +1031,13 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -1029,7 +1052,7 @@
       <c r="G7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="6" t="s">
         <v>40</v>
       </c>
       <c r="I7" s="2"/>
@@ -1040,28 +1063,28 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="6" t="s">
         <v>40</v>
       </c>
       <c r="I8" s="2"/>
@@ -1072,16 +1095,16 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -1093,7 +1116,7 @@
       <c r="G9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="6" t="s">
         <v>9</v>
       </c>
       <c r="I9" s="2"/>
@@ -1104,28 +1127,28 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="153.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="11">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="11" t="s">
         <v>40</v>
       </c>
       <c r="I10" s="2"/>
